--- a/Data files/SSL_scan_data.xlsx
+++ b/Data files/SSL_scan_data.xlsx
@@ -1,47 +1,83 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - CACTUS\Python\Sel_python\Pytest\Data files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Data_01" sheetId="1" r:id="rId1"/>
+    <sheet name="Data_01 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>URL</t>
   </si>
   <si>
+    <t>Issued to</t>
+  </si>
+  <si>
+    <t>Issued by</t>
+  </si>
+  <si>
+    <t>Expiry</t>
+  </si>
+  <si>
+    <t>Https Status</t>
+  </si>
+  <si>
+    <t>lifesciences.cactusglobal.com</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Https secured</t>
+  </si>
+  <si>
+    <t>impact.science</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>Not https/no auto-redirect to https</t>
+  </si>
+  <si>
+    <t>cactusglobal.com</t>
+  </si>
+  <si>
+    <t>*.cactusglobal.com</t>
+  </si>
+  <si>
+    <t>Go Daddy Secure Certificate Authority - G2</t>
+  </si>
+  <si>
+    <t>researcher.life</t>
+  </si>
+  <si>
     <t>Certificate issued by</t>
-  </si>
-  <si>
-    <t>Expiry</t>
-  </si>
-  <si>
-    <t>www.impact.science</t>
-  </si>
-  <si>
-    <t>cactusglobal.com</t>
-  </si>
-  <si>
-    <t>researcher.life</t>
-  </si>
-  <si>
-    <t>www.lifesciences.cactusglobal.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,14 +89,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -104,11 +132,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -116,10 +143,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -422,10 +450,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5">
+        <v>44575.999988425923</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>44480.486701388887</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5">
+        <v>44680.614363425928</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5">
+        <v>44703.999988425923</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,37 +590,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/Data files/SSL_scan_data.xlsx
+++ b/Data files/SSL_scan_data.xlsx
@@ -52,7 +52,7 @@
     <t>R3</t>
   </si>
   <si>
-    <t>Not https/no auto-redirect to https</t>
+    <t>No https/no auto-redirect to https</t>
   </si>
   <si>
     <t>cactusglobal.com</t>
@@ -453,7 +453,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
